--- a/m_03/m_03_v_02_filter/m_03_v_02_solutions.xlsx
+++ b/m_03/m_03_v_02_filter/m_03_v_02_solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27404"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\advanced_analytics_excel_video_course\m_03\m_03_v_02_filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE017BC-15C8-48F0-B693-55C2F2C1B2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2710F18C-7E09-4CD8-B60D-7F799420A046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="filter" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -494,7 +494,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D6" sqref="A2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
